--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/74.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/74.xlsx
@@ -479,13 +479,13 @@
         <v>-5.716343082772171</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.669175778910741</v>
+        <v>-8.707235103271639</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.034340281951734</v>
+        <v>-3.030988652424252</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.432994177887209</v>
+        <v>-5.43990691378764</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.28294839067714</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.916738133344941</v>
+        <v>-8.958227641050371</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.123040633704429</v>
+        <v>-3.117698974145004</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.360593743172464</v>
+        <v>-5.370138031944082</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.963055971338231</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.735412922340913</v>
+        <v>-9.775645568973538</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.006833353681268</v>
+        <v>-3.000522863711556</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.231778575512721</v>
+        <v>-5.239856526366066</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.792461697350465</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.50685068268394</v>
+        <v>-10.54502783777041</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.911861788867387</v>
+        <v>-2.907148559844365</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.443965527668575</v>
+        <v>-5.453588370257244</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.736985018127169</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.28404905627732</v>
+        <v>-11.32250114972347</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.759820875966422</v>
+        <v>-2.756233584987789</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.99664081647532</v>
+        <v>-5.00634221288104</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.779505576475164</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.94877145615744</v>
+        <v>-11.98660821137003</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.731724794068078</v>
+        <v>-2.72825533381502</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.1298288132842</v>
+        <v>-5.138194794800063</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.888882908694086</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.44926400919094</v>
+        <v>-12.48766373342572</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.610450792845169</v>
+        <v>-2.606339809752868</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.690241653070406</v>
+        <v>-4.697992296352708</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.029694737931303</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.4208961722868</v>
+        <v>-13.45813068156867</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.357088548252086</v>
+        <v>-2.35385474945018</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.60752448371638</v>
+        <v>-4.61230317425361</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.167725584582453</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.16902963357155</v>
+        <v>-14.2044050358499</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.332514295818167</v>
+        <v>-2.330511173483383</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.230413792663303</v>
+        <v>-4.230858930959921</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.277751928501405</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.86406071453027</v>
+        <v>-14.89950157832282</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.157483299127131</v>
+        <v>-2.155715838243498</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.015844041390254</v>
+        <v>-4.017964994450614</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.331380887580485</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.52463285440956</v>
+        <v>-15.55872521100941</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.146433395528714</v>
+        <v>-2.146197734077563</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.500426263117182</v>
+        <v>-3.502180631697974</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.311842694532094</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.49297884949214</v>
+        <v>-16.52705811378915</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.979218503634189</v>
+        <v>-1.977817627230124</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.861089838447173</v>
+        <v>-2.863446452958684</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.217508154922971</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.13376851977758</v>
+        <v>-17.16470563139258</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.703141113610711</v>
+        <v>-1.703376775061862</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.492489144241218</v>
+        <v>-2.492266575092908</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.047719659550505</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.03733380039931</v>
+        <v>-18.06684385100456</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.535978590927553</v>
+        <v>-1.53716999048615</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.899748225384911</v>
+        <v>-1.901240747908868</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.810546402544481</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.95101943111768</v>
+        <v>-18.97889294386772</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.371774928686624</v>
+        <v>-1.374995635185689</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.538937451369783</v>
+        <v>-1.534027837804135</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.525084510289425</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.73857381625887</v>
+        <v>-19.76529520635884</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.127747496019692</v>
+        <v>-1.133298632424584</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.013255307668798</v>
+        <v>-1.006774617762143</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.208034422765284</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.72217234415207</v>
+        <v>-20.74763687317923</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.03064188584261</v>
+        <v>-1.036742898966854</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6481764429272663</v>
+        <v>-0.6431097217275182</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.876390335595135</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.56047249510779</v>
+        <v>-21.58629051631167</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8779987270109256</v>
+        <v>-0.8854089704193426</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2804791176173896</v>
+        <v>-0.2723749821583612</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.551846219908396</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.20862003959028</v>
+        <v>-22.23535452199308</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6247150362348931</v>
+        <v>-0.6342593250065115</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09681486567547219</v>
+        <v>0.1007687411336735</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.250179183087564</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.83842526779151</v>
+        <v>-22.86319590476806</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3251238703076755</v>
+        <v>-0.335427512644114</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4168693009443077</v>
+        <v>0.4226037295889837</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.98160276462585</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.46785081921034</v>
+        <v>-23.49268691770109</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05900972274675147</v>
+        <v>-0.07190564104585165</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3850680973417551</v>
+        <v>0.3922426792990209</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.758728203766574</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.97618566164603</v>
+        <v>-23.99962088373272</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05641201910590555</v>
+        <v>0.04252108579083419</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6487863534826432</v>
+        <v>0.6593387495730745</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.58855154283367</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.35499835206853</v>
+        <v>-24.37844666645807</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03457405796590646</v>
+        <v>0.02099733991903653</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5789258255191929</v>
+        <v>0.5880904375084012</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.470598645169185</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.62954394265953</v>
+        <v>-24.65114624234838</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3209419980229807</v>
+        <v>0.3080460797238806</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5671689375673229</v>
+        <v>0.5762288111337973</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.406181551062448</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.64450844480762</v>
+        <v>-24.66371485307643</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3334451472368292</v>
+        <v>0.3214002286224412</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4105588109745957</v>
+        <v>0.4207838994939838</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.39355938537992</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.61460562511712</v>
+        <v>-24.63108883439486</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1524047835414411</v>
+        <v>0.1399147266304344</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3863773276259276</v>
+        <v>0.3961703701515387</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.423451950120745</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.72488209195298</v>
+        <v>-24.73984659410107</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2709817703789541</v>
+        <v>0.2595260053924437</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09629117356180315</v>
+        <v>0.1064115236584574</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.488187724797112</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76682983025787</v>
+        <v>-24.78064220975589</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2231294034924453</v>
+        <v>0.2147372373708989</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.002987758887005623</v>
+        <v>0.005365130326015609</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.579672012006764</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.54251940567058</v>
+        <v>-24.5557033546322</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09180051368709111</v>
+        <v>0.08156233286486132</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2000792858663498</v>
+        <v>-0.1922369964641559</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.682505601853053</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.07033241138089</v>
+        <v>-24.0854932980716</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09252059034338604</v>
+        <v>0.08325123993144398</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6630231143497837</v>
+        <v>-0.6567126243800716</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.783496552025964</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.14908261297387</v>
+        <v>-24.16302591550031</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1537140138256137</v>
+        <v>0.1452694784927004</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7276467211765435</v>
+        <v>-0.7246223992201047</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.872970689660249</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.72768066140723</v>
+        <v>-23.74210837913881</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06973998339878269</v>
+        <v>0.06273560137845924</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.193929086884618</v>
+        <v>-1.19114042637933</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.938128333463818</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16713371523873</v>
+        <v>-23.18013437196056</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.08450043637959212</v>
+        <v>-0.08975044981912428</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.269432397372852</v>
+        <v>-1.26843738235688</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.970182581186493</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.82229555069051</v>
+        <v>-22.83396079252249</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2766430728847639</v>
+        <v>-0.2826393475862745</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.294504157314757</v>
+        <v>-1.294307772772131</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.965476424100486</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.09809481900043</v>
+        <v>-22.10936729174716</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4047119792825283</v>
+        <v>-0.4090586238259813</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.500642465557734</v>
+        <v>-1.502174264990216</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.919961021857723</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.28940945707269</v>
+        <v>-21.3035622364446</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.341305956620049</v>
+        <v>-0.3450503552327826</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.624652758074563</v>
+        <v>-1.622269958957369</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.831948599260943</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91536236488458</v>
+        <v>-20.92879506760019</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4004569808589673</v>
+        <v>-0.4057724558127081</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.874048034906603</v>
+        <v>-1.871351020521208</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.704509208154641</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.26059011516417</v>
+        <v>-20.27343366425191</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.248442252563686</v>
+        <v>-0.2536137121861677</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.029204915883899</v>
+        <v>-2.02716251664059</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.540992905352088</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.9528555368694</v>
+        <v>-19.9623605487325</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5288793794334583</v>
+        <v>-0.5340377467530985</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.252389402426803</v>
+        <v>-2.24918178823058</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.345221373662965</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.42280056401928</v>
+        <v>-19.43471455960525</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2507595901666715</v>
+        <v>-0.2564023726914554</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.094391491732853</v>
+        <v>-2.095085383783464</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.124935912281345</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86034214163589</v>
+        <v>-18.87260962939859</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004775976698137935</v>
+        <v>-0.002987758887005623</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.071702530908142</v>
+        <v>-2.075931344726019</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.888274045317667</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.95978809066776</v>
+        <v>-17.97433363912492</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.003367435669415679</v>
+        <v>-0.01086932519772472</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.96041795675347</v>
+        <v>-1.967225954231168</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.642076094737124</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62380032284054</v>
+        <v>-17.63788764069824</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04206285519137378</v>
+        <v>0.03634151884953948</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.161397897676807</v>
+        <v>-2.169646048467095</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.394344644269519</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.11035948229657</v>
+        <v>-17.12413258488607</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01164943569004412</v>
+        <v>0.005221114994756621</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.205322573710798</v>
+        <v>-2.213518355289719</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.152649593466956</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.73184791483943</v>
+        <v>-16.7452675252522</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03319936616752523</v>
+        <v>0.02654847632392839</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.149470809787994</v>
+        <v>-2.159761359821591</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.9213419725226146</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.07054260600101</v>
+        <v>-16.08428952398482</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04173554762033062</v>
+        <v>0.0371532416257265</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.44123277861586</v>
+        <v>-2.453460989470032</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.7038615164669764</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.41853283218021</v>
+        <v>-15.43005405868093</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01404532711007999</v>
+        <v>0.01017000546892908</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.376504433366366</v>
+        <v>-2.389557459299567</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.5043568273451962</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.88254704614278</v>
+        <v>-14.8960452103726</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1608362265715127</v>
+        <v>0.1556254900405057</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.5639600254542</v>
+        <v>-2.580639619274559</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3241349528890133</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18947981061033</v>
+        <v>-14.20238882121227</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3096171560648877</v>
+        <v>0.3033328507008592</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.481805825122369</v>
+        <v>-2.504455509038555</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1633528036742818</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.42185191039425</v>
+        <v>-13.43122599922892</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3031888353696002</v>
+        <v>0.2978078989016508</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.550200015167546</v>
+        <v>-2.57601803637143</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.02456116032711968</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83127122150683</v>
+        <v>-12.83963720302269</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3880400500868268</v>
+        <v>0.3812713295176545</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.559521734790855</v>
+        <v>-2.586570432461861</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.09170397656617081</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.18190609286006</v>
+        <v>-12.189106859423</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4370969088347744</v>
+        <v>0.4312315571616812</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.580783634605818</v>
+        <v>-2.60886662420132</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.185631395739323</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80548929385759</v>
+        <v>-11.81469318275532</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3280903953745632</v>
+        <v>0.3211907517769735</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.687315702828943</v>
+        <v>-2.716734107314302</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2551868244842545</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34901306297797</v>
+        <v>-11.35681607547164</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07819761103453772</v>
+        <v>0.07229298245291926</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.154291960587629</v>
+        <v>-3.186603764001009</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3008674059386887</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90955682579259</v>
+        <v>-10.91877380699317</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1687439774879152</v>
+        <v>0.1612159033539227</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.223406227289101</v>
+        <v>-3.256830876444027</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3243847908722486</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.15203618337032</v>
+        <v>-10.16086039548564</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1082313537534573</v>
+        <v>0.1007949257393569</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.585316754742934</v>
+        <v>-3.617942773424515</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3269511365554896</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.848648249619002</v>
+        <v>-9.857001138832024</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.06564752028750659</v>
+        <v>-0.07261262539930485</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.621215849134947</v>
+        <v>-3.653894237027895</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3115919302498822</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.303602590015103</v>
+        <v>-9.311719817776973</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02438824635504359</v>
+        <v>0.0156556803596123</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.903354975374144</v>
+        <v>-3.935247825096588</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2824443970805974</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.94427124622109</v>
+        <v>-8.951602935812456</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1136046255967492</v>
+        <v>-0.1217218533586193</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.818726329805227</v>
+        <v>-3.850030025899794</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2436740937328785</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.415865903529026</v>
+        <v>-8.420068532741221</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1368303708379712</v>
+        <v>-0.1439394912810285</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.219586458213195</v>
+        <v>-4.251374569512906</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2001033599273627</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.909233060462753</v>
+        <v>-7.915347165889838</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.08160703745157066</v>
+        <v>-0.08956715757934011</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.180139349751075</v>
+        <v>-4.212411876255929</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1567647690757364</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.42392757872565</v>
+        <v>-7.432188821818779</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1347617869889785</v>
+        <v>-0.1412031999871077</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.182639979593844</v>
+        <v>-4.214650660041865</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1190004094834102</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.075907984586888</v>
+        <v>-7.080293906038866</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2928644361056625</v>
+        <v>-0.2991880183782162</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.42995358027405</v>
+        <v>-4.460707399649264</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.09140192456304946</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.700106523817983</v>
+        <v>-6.706822875175789</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2406392400700172</v>
+        <v>-0.2470413761596213</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.712014152696196</v>
+        <v>-4.742650141345835</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.0771071603720611</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.451169477585403</v>
+        <v>-6.45774181361195</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3566763201562353</v>
+        <v>-0.3625547641321704</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.702731709981412</v>
+        <v>-4.732634529671914</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.07859230732124728</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.290173429540698</v>
+        <v>-6.295934042791058</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.412279330325046</v>
+        <v>-0.41830178963224</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.815417160540148</v>
+        <v>-4.843853642312378</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.09691451374922681</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.013415239769451</v>
+        <v>-6.018495053272041</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3811851110759465</v>
+        <v>-0.3856234017392917</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.816084867985077</v>
+        <v>-4.843028827233349</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1315174055670976</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.8772552902155</v>
+        <v>-5.881824503907262</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6344688018519791</v>
+        <v>-0.6392867692977343</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.914093847058238</v>
+        <v>-4.939702391416654</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.182614388940561</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.643832622850366</v>
+        <v>-5.650640620328063</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5814973445543554</v>
+        <v>-0.5873888808331321</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.778274297378172</v>
+        <v>-4.802573611452416</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2504198933498888</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.520162730207421</v>
+        <v>-5.5263684817544</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6788517084854304</v>
+        <v>-0.6827270301265813</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.753202537436266</v>
+        <v>-4.776375913466121</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.333478323363973</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.502095352285839</v>
+        <v>-5.509453226482889</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7725795045293473</v>
+        <v>-0.7763108108392393</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.654264004861343</v>
+        <v>-4.674989120259795</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.4309277732588757</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.536711400999363</v>
+        <v>-5.546190228256773</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8296095757079062</v>
+        <v>-0.8320709286421506</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.464360152142106</v>
+        <v>-4.484627036941098</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.5404902356952952</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.774336697576691</v>
+        <v>-5.783645324897158</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7220039386517596</v>
+        <v>-0.72504135291104</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.350155994453729</v>
+        <v>-4.372439093890347</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.6573342174119768</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.977359037743337</v>
+        <v>-5.984847834968805</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.0522572778343</v>
+        <v>-1.053330846667321</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.182522148868268</v>
+        <v>-4.205472955749815</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.7776808866292079</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.50332921210684</v>
+        <v>-6.510464517155581</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9655338638107062</v>
+        <v>-0.9672489554829723</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.019588440002988</v>
+        <v>-4.042408323856116</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.8969838543967446</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.966809825006785</v>
+        <v>-6.974468822169195</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.024540872718366</v>
+        <v>-1.025365687797394</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.939240977463315</v>
+        <v>-3.962833307184106</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.009648165009797</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.540933489222156</v>
+        <v>-7.550346854965357</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.112547332420448</v>
+        <v>-1.111971271095412</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.540266140664555</v>
+        <v>-3.566057977262755</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.111074546998663</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.965516870379333</v>
+        <v>-7.9748254976998</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.077446868501781</v>
+        <v>-1.075666315315306</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.332910248257297</v>
+        <v>-3.360980145549958</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.197050009460403</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.438489402839529</v>
+        <v>-8.447182691926434</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.264509691504363</v>
+        <v>-1.263606322608284</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.965579507426989</v>
+        <v>-2.994094543016268</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.263084422240826</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.380703161450029</v>
+        <v>-9.389029866057367</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.188142289028574</v>
+        <v>-1.186374828144942</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.944095038463717</v>
+        <v>-2.975058334684399</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.30464856834571</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.20331873360136</v>
+        <v>-10.20968159278244</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.279866962737707</v>
+        <v>-1.277785286585873</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.767702442277141</v>
+        <v>-2.798914492251816</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.316878173758949</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.03681400941417</v>
+        <v>-11.04292811484125</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.386189554115365</v>
+        <v>-1.382798647679358</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.395396626366977</v>
+        <v>-2.426700322461544</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.294976112559288</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.25239505135991</v>
+        <v>-12.25629655760674</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.464481525108887</v>
+        <v>-1.461823787632016</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.288170666093241</v>
+        <v>-2.319120870011081</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.233924014364685</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13688484674124</v>
+        <v>-13.13973896876073</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.561312196926293</v>
+        <v>-1.557358321468091</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.944170408926888</v>
+        <v>-1.977045181362462</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.126940086534063</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32887355896619</v>
+        <v>-14.32800946697863</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.766717336210133</v>
+        <v>-1.761140015199558</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.699606191843445</v>
+        <v>-1.729561380745314</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.9684538884493574</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42894121293938</v>
+        <v>-15.42604781401136</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.810105227827613</v>
+        <v>-1.804279153063045</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.285614483685225</v>
+        <v>-1.316473041483173</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.7544246284870407</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83873347523928</v>
+        <v>-16.83462249214698</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.830581589472073</v>
+        <v>-1.823105884549447</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9777882592705618</v>
+        <v>-1.007075740727503</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.4769171997866987</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.5307957868068</v>
+        <v>-18.52092419046414</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.059723073807962</v>
+        <v>-2.05219499967397</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7675651525409662</v>
+        <v>-0.7984498949445981</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1314193661004793</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.14303432794832</v>
+        <v>-20.13291397785166</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.281480499341118</v>
+        <v>-2.274541578835004</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4755675222619498</v>
+        <v>-0.5051037574728838</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2804998384315862</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.96989498957425</v>
+        <v>-21.958334486165</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.489202976227944</v>
+        <v>-2.480915548529132</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6363148165526624</v>
+        <v>-0.6617924378826614</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.7635754993369585</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.69144116714133</v>
+        <v>-23.6778775413973</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.590471938708695</v>
+        <v>-2.581425157445063</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4575525135517347</v>
+        <v>-0.4833050732414099</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.317100586077065</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.76748762875384</v>
+        <v>-25.75311228023362</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.767401319311781</v>
+        <v>-2.76048858341135</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4566753292613391</v>
+        <v>-0.4798748898968777</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.931170363873029</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.03157883608205</v>
+        <v>-28.01598590339755</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.640327427929988</v>
+        <v>-2.632707707676104</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5924163251243549</v>
+        <v>-0.6165454392616561</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.603310238520424</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.31414328271994</v>
+        <v>-30.29817067325303</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.130477061718529</v>
+        <v>-3.123498864303889</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.973520168544159</v>
+        <v>-0.9932240843209568</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.330253901315215</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.49515073621456</v>
+        <v>-32.47860206542262</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.191447916052447</v>
+        <v>-3.185032687660001</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.197189070292207</v>
+        <v>-1.217181016731523</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.088549373424417</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.72092077312504</v>
+        <v>-34.70460776378425</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.569579806727179</v>
+        <v>-3.558844118396964</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.431069968256802</v>
+        <v>-1.448325623402197</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.882489665534313</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.22814913652695</v>
+        <v>-37.21177066567195</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.818883437439327</v>
+        <v>-3.80889401037109</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.856098487710597</v>
+        <v>-1.871010620647323</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.678314121018339</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.76156210561231</v>
+        <v>-39.74328525084526</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.716907490605123</v>
+        <v>-3.707075171170986</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.33276304957216</v>
+        <v>-2.346470690647447</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.490334508577511</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.33071706145559</v>
+        <v>-42.31423385217785</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.898576284836914</v>
+        <v>-3.890262672532418</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.692893023839519</v>
+        <v>-2.70322285078164</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.249425235278621</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.58201708890743</v>
+        <v>-44.56954012429927</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.144803224381256</v>
+        <v>-4.134211551382299</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.299524876010896</v>
+        <v>-3.307812303709708</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.03420209426913</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.8919968176959</v>
+        <v>-46.88122185245716</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.28970883223348</v>
+        <v>-4.278305436458337</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.579084818590272</v>
+        <v>-3.586128477519121</v>
       </c>
     </row>
   </sheetData>
